--- a/CISSP/source/AddlReading-CISSP-Master.xlsx
+++ b/CISSP/source/AddlReading-CISSP-Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\flashcard-supplemental\CISSP\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF9DC30-FD8D-43A6-9791-447F5CC76007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99ED91A4-5D7A-4E77-A78A-23D7EFFD4E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{34A9777F-DBB9-4DF2-A0D5-1DCEB488E1EA}"/>
   </bookViews>
@@ -11481,8 +11481,8 @@
   <dimension ref="A1:F1180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A357" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A684" sqref="A357:A684"/>
+      <pane ySplit="1" topLeftCell="A434" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1190" sqref="C1190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15493,52 +15493,52 @@
         <v>680</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
+        <v>433</v>
+      </c>
+      <c r="B201" t="s">
+        <v>2994</v>
+      </c>
+      <c r="C201" t="s">
+        <v>479</v>
+      </c>
+      <c r="D201" t="s">
+        <v>3590</v>
+      </c>
+      <c r="E201" t="s">
+        <v>480</v>
+      </c>
+      <c r="F201" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>394</v>
+      </c>
+      <c r="B202" t="s">
+        <v>2955</v>
+      </c>
+      <c r="C202" t="s">
+        <v>479</v>
+      </c>
+      <c r="D202" t="s">
+        <v>3590</v>
+      </c>
+      <c r="E202" t="s">
+        <v>480</v>
+      </c>
+      <c r="F202" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
         <v>199</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B203" t="s">
         <v>2759</v>
-      </c>
-      <c r="C201" t="s">
-        <v>479</v>
-      </c>
-      <c r="D201" t="s">
-        <v>3555</v>
-      </c>
-      <c r="E201" t="s">
-        <v>480</v>
-      </c>
-      <c r="F201" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
-        <v>200</v>
-      </c>
-      <c r="B202" t="s">
-        <v>2760</v>
-      </c>
-      <c r="C202" t="s">
-        <v>479</v>
-      </c>
-      <c r="D202" t="s">
-        <v>3555</v>
-      </c>
-      <c r="E202" t="s">
-        <v>480</v>
-      </c>
-      <c r="F202" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
-        <v>201</v>
-      </c>
-      <c r="B203" t="s">
-        <v>2761</v>
       </c>
       <c r="C203" t="s">
         <v>479</v>
@@ -15550,35 +15550,35 @@
         <v>480</v>
       </c>
       <c r="F203" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>202</v>
+        <v>395</v>
       </c>
       <c r="B204" t="s">
-        <v>2762</v>
+        <v>2956</v>
       </c>
       <c r="C204" t="s">
         <v>479</v>
       </c>
       <c r="D204" t="s">
-        <v>3555</v>
+        <v>3590</v>
       </c>
       <c r="E204" t="s">
         <v>480</v>
       </c>
       <c r="F204" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B205" t="s">
-        <v>2763</v>
+        <v>2761</v>
       </c>
       <c r="C205" t="s">
         <v>479</v>
@@ -15590,15 +15590,15 @@
         <v>480</v>
       </c>
       <c r="F205" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B206" t="s">
-        <v>2764</v>
+        <v>2762</v>
       </c>
       <c r="C206" t="s">
         <v>479</v>
@@ -15610,27 +15610,27 @@
         <v>480</v>
       </c>
       <c r="F206" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B207" t="s">
-        <v>2765</v>
+        <v>2760</v>
       </c>
       <c r="C207" t="s">
         <v>479</v>
       </c>
       <c r="D207" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="E207" t="s">
         <v>480</v>
       </c>
       <c r="F207" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
     </row>
     <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -16053,24 +16053,24 @@
         <v>708</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>227</v>
+        <v>396</v>
       </c>
       <c r="B229" t="s">
-        <v>2787</v>
+        <v>2957</v>
       </c>
       <c r="C229" t="s">
         <v>479</v>
       </c>
       <c r="D229" t="s">
-        <v>3560</v>
+        <v>3590</v>
       </c>
       <c r="E229" t="s">
         <v>480</v>
       </c>
       <c r="F229" t="s">
-        <v>709</v>
+        <v>880</v>
       </c>
     </row>
     <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -16373,24 +16373,24 @@
         <v>724</v>
       </c>
     </row>
-    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>243</v>
+        <v>398</v>
       </c>
       <c r="B245" t="s">
-        <v>2803</v>
+        <v>2959</v>
       </c>
       <c r="C245" t="s">
         <v>479</v>
       </c>
       <c r="D245" t="s">
-        <v>3562</v>
+        <v>3590</v>
       </c>
       <c r="E245" t="s">
         <v>480</v>
       </c>
       <c r="F245" t="s">
-        <v>725</v>
+        <v>882</v>
       </c>
     </row>
     <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -16793,24 +16793,24 @@
         <v>745</v>
       </c>
     </row>
-    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="B266" t="s">
-        <v>2824</v>
+        <v>2842</v>
       </c>
       <c r="C266" t="s">
         <v>479</v>
       </c>
       <c r="D266" t="s">
-        <v>3567</v>
+        <v>3572</v>
       </c>
       <c r="E266" t="s">
         <v>480</v>
       </c>
       <c r="F266" t="s">
-        <v>746</v>
+        <v>764</v>
       </c>
     </row>
     <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -17153,24 +17153,24 @@
         <v>763</v>
       </c>
     </row>
-    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>282</v>
+        <v>399</v>
       </c>
       <c r="B284" t="s">
-        <v>2842</v>
+        <v>2960</v>
       </c>
       <c r="C284" t="s">
         <v>479</v>
       </c>
       <c r="D284" t="s">
-        <v>3572</v>
+        <v>3590</v>
       </c>
       <c r="E284" t="s">
         <v>480</v>
       </c>
       <c r="F284" t="s">
-        <v>764</v>
+        <v>883</v>
       </c>
     </row>
     <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -17193,44 +17193,44 @@
         <v>765</v>
       </c>
     </row>
-    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>284</v>
+        <v>397</v>
       </c>
       <c r="B286" t="s">
-        <v>2844</v>
+        <v>2958</v>
       </c>
       <c r="C286" t="s">
         <v>479</v>
       </c>
       <c r="D286" t="s">
-        <v>3572</v>
+        <v>3590</v>
       </c>
       <c r="E286" t="s">
         <v>480</v>
       </c>
       <c r="F286" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>285</v>
+        <v>400</v>
       </c>
       <c r="B287" t="s">
-        <v>2845</v>
+        <v>2961</v>
       </c>
       <c r="C287" t="s">
         <v>479</v>
       </c>
       <c r="D287" t="s">
-        <v>3572</v>
+        <v>3591</v>
       </c>
       <c r="E287" t="s">
         <v>480</v>
       </c>
       <c r="F287" t="s">
-        <v>767</v>
+        <v>884</v>
       </c>
     </row>
     <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -17313,164 +17313,164 @@
         <v>771</v>
       </c>
     </row>
-    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>290</v>
+        <v>401</v>
       </c>
       <c r="B292" t="s">
-        <v>2850</v>
+        <v>2962</v>
       </c>
       <c r="C292" t="s">
         <v>479</v>
       </c>
       <c r="D292" t="s">
-        <v>3572</v>
+        <v>3590</v>
       </c>
       <c r="E292" t="s">
         <v>480</v>
       </c>
       <c r="F292" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>291</v>
+        <v>434</v>
       </c>
       <c r="B293" t="s">
-        <v>2851</v>
+        <v>2995</v>
       </c>
       <c r="C293" t="s">
         <v>479</v>
       </c>
       <c r="D293" t="s">
-        <v>3572</v>
+        <v>3593</v>
       </c>
       <c r="E293" t="s">
         <v>480</v>
       </c>
       <c r="F293" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>292</v>
+        <v>444</v>
       </c>
       <c r="B294" t="s">
-        <v>2852</v>
+        <v>3005</v>
       </c>
       <c r="C294" t="s">
         <v>479</v>
       </c>
       <c r="D294" t="s">
-        <v>3572</v>
+        <v>3597</v>
       </c>
       <c r="E294" t="s">
         <v>480</v>
       </c>
       <c r="F294" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>293</v>
+        <v>402</v>
       </c>
       <c r="B295" t="s">
-        <v>2853</v>
+        <v>2963</v>
       </c>
       <c r="C295" t="s">
         <v>479</v>
       </c>
       <c r="D295" t="s">
-        <v>3572</v>
+        <v>3590</v>
       </c>
       <c r="E295" t="s">
         <v>480</v>
       </c>
       <c r="F295" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>294</v>
+        <v>446</v>
       </c>
       <c r="B296" t="s">
-        <v>2854</v>
+        <v>3007</v>
       </c>
       <c r="C296" t="s">
         <v>479</v>
       </c>
       <c r="D296" t="s">
-        <v>3572</v>
+        <v>3597</v>
       </c>
       <c r="E296" t="s">
         <v>480</v>
       </c>
       <c r="F296" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>295</v>
+        <v>447</v>
       </c>
       <c r="B297" t="s">
-        <v>2855</v>
+        <v>3008</v>
       </c>
       <c r="C297" t="s">
         <v>479</v>
       </c>
       <c r="D297" t="s">
-        <v>3572</v>
+        <v>3597</v>
       </c>
       <c r="E297" t="s">
         <v>480</v>
       </c>
       <c r="F297" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>291</v>
+        <v>403</v>
       </c>
       <c r="B298" t="s">
-        <v>2856</v>
+        <v>2964</v>
       </c>
       <c r="C298" t="s">
         <v>479</v>
       </c>
       <c r="D298" t="s">
-        <v>3572</v>
+        <v>3590</v>
       </c>
       <c r="E298" t="s">
         <v>480</v>
       </c>
       <c r="F298" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>296</v>
+        <v>448</v>
       </c>
       <c r="B299" t="s">
-        <v>2857</v>
+        <v>3009</v>
       </c>
       <c r="C299" t="s">
         <v>479</v>
       </c>
       <c r="D299" t="s">
-        <v>3575</v>
+        <v>3597</v>
       </c>
       <c r="E299" t="s">
         <v>480</v>
       </c>
       <c r="F299" t="s">
-        <v>779</v>
+        <v>933</v>
       </c>
     </row>
     <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -18613,7 +18613,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>354</v>
       </c>
@@ -18653,7 +18653,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>356</v>
       </c>
@@ -18893,7 +18893,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>368</v>
       </c>
@@ -19293,7 +19293,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>388</v>
       </c>
@@ -19313,7 +19313,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>389</v>
       </c>
@@ -19433,52 +19433,52 @@
         <v>877</v>
       </c>
     </row>
-    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>394</v>
+        <v>296</v>
       </c>
       <c r="B398" t="s">
-        <v>2955</v>
+        <v>2857</v>
       </c>
       <c r="C398" t="s">
         <v>479</v>
       </c>
       <c r="D398" t="s">
-        <v>3590</v>
+        <v>3575</v>
       </c>
       <c r="E398" t="s">
         <v>480</v>
       </c>
       <c r="F398" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>395</v>
+        <v>284</v>
       </c>
       <c r="B399" t="s">
-        <v>2956</v>
+        <v>2844</v>
       </c>
       <c r="C399" t="s">
         <v>479</v>
       </c>
       <c r="D399" t="s">
-        <v>3590</v>
+        <v>3572</v>
       </c>
       <c r="E399" t="s">
         <v>480</v>
       </c>
       <c r="F399" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B400" t="s">
-        <v>2957</v>
+        <v>2965</v>
       </c>
       <c r="C400" t="s">
         <v>479</v>
@@ -19490,35 +19490,35 @@
         <v>480</v>
       </c>
       <c r="F400" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="B401" t="s">
-        <v>2958</v>
+        <v>2966</v>
       </c>
       <c r="C401" t="s">
         <v>479</v>
       </c>
       <c r="D401" t="s">
-        <v>3590</v>
+        <v>3592</v>
       </c>
       <c r="E401" t="s">
         <v>480</v>
       </c>
       <c r="F401" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="B402" t="s">
-        <v>2959</v>
+        <v>2967</v>
       </c>
       <c r="C402" t="s">
         <v>479</v>
@@ -19530,15 +19530,15 @@
         <v>480</v>
       </c>
       <c r="F402" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="B403" t="s">
-        <v>2960</v>
+        <v>2968</v>
       </c>
       <c r="C403" t="s">
         <v>479</v>
@@ -19550,15 +19550,15 @@
         <v>480</v>
       </c>
       <c r="F403" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B404" t="s">
-        <v>2961</v>
+        <v>2969</v>
       </c>
       <c r="C404" t="s">
         <v>479</v>
@@ -19570,15 +19570,15 @@
         <v>480</v>
       </c>
       <c r="F404" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="B405" t="s">
-        <v>2962</v>
+        <v>2970</v>
       </c>
       <c r="C405" t="s">
         <v>479</v>
@@ -19590,35 +19590,35 @@
         <v>480</v>
       </c>
       <c r="F405" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>402</v>
+        <v>285</v>
       </c>
       <c r="B406" t="s">
-        <v>2963</v>
+        <v>2845</v>
       </c>
       <c r="C406" t="s">
         <v>479</v>
       </c>
       <c r="D406" t="s">
-        <v>3590</v>
+        <v>3572</v>
       </c>
       <c r="E406" t="s">
         <v>480</v>
       </c>
       <c r="F406" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="B407" t="s">
-        <v>2964</v>
+        <v>2971</v>
       </c>
       <c r="C407" t="s">
         <v>479</v>
@@ -19630,15 +19630,15 @@
         <v>480</v>
       </c>
       <c r="F407" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B408" t="s">
-        <v>2965</v>
+        <v>2972</v>
       </c>
       <c r="C408" t="s">
         <v>479</v>
@@ -19650,35 +19650,35 @@
         <v>480</v>
       </c>
       <c r="F408" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="B409" t="s">
-        <v>2966</v>
+        <v>2973</v>
       </c>
       <c r="C409" t="s">
         <v>479</v>
       </c>
       <c r="D409" t="s">
-        <v>3592</v>
+        <v>3590</v>
       </c>
       <c r="E409" t="s">
         <v>480</v>
       </c>
       <c r="F409" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="B410" t="s">
-        <v>2967</v>
+        <v>2974</v>
       </c>
       <c r="C410" t="s">
         <v>479</v>
@@ -19690,15 +19690,15 @@
         <v>480</v>
       </c>
       <c r="F410" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="B411" t="s">
-        <v>2968</v>
+        <v>2976</v>
       </c>
       <c r="C411" t="s">
         <v>479</v>
@@ -19710,95 +19710,95 @@
         <v>480</v>
       </c>
       <c r="F411" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="B412" t="s">
-        <v>2969</v>
+        <v>2977</v>
       </c>
       <c r="C412" t="s">
         <v>479</v>
       </c>
       <c r="D412" t="s">
+        <v>3590</v>
+      </c>
+      <c r="E412" t="s">
+        <v>480</v>
+      </c>
+      <c r="F412" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>290</v>
+      </c>
+      <c r="B413" t="s">
+        <v>2850</v>
+      </c>
+      <c r="C413" t="s">
+        <v>479</v>
+      </c>
+      <c r="D413" t="s">
+        <v>3572</v>
+      </c>
+      <c r="E413" t="s">
+        <v>480</v>
+      </c>
+      <c r="F413" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>414</v>
+      </c>
+      <c r="B414" t="s">
+        <v>2975</v>
+      </c>
+      <c r="C414" t="s">
+        <v>479</v>
+      </c>
+      <c r="D414" t="s">
         <v>3591</v>
       </c>
-      <c r="E412" t="s">
-        <v>480</v>
-      </c>
-      <c r="F412" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A413" t="s">
-        <v>409</v>
-      </c>
-      <c r="B413" t="s">
-        <v>2970</v>
-      </c>
-      <c r="C413" t="s">
-        <v>479</v>
-      </c>
-      <c r="D413" t="s">
-        <v>3590</v>
-      </c>
-      <c r="E413" t="s">
-        <v>480</v>
-      </c>
-      <c r="F413" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A414" t="s">
-        <v>410</v>
-      </c>
-      <c r="B414" t="s">
-        <v>2971</v>
-      </c>
-      <c r="C414" t="s">
-        <v>479</v>
-      </c>
-      <c r="D414" t="s">
-        <v>3590</v>
-      </c>
       <c r="E414" t="s">
         <v>480</v>
       </c>
       <c r="F414" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>411</v>
+        <v>451</v>
       </c>
       <c r="B415" t="s">
-        <v>2972</v>
+        <v>3012</v>
       </c>
       <c r="C415" t="s">
         <v>479</v>
       </c>
       <c r="D415" t="s">
-        <v>3590</v>
+        <v>3597</v>
       </c>
       <c r="E415" t="s">
         <v>480</v>
       </c>
       <c r="F415" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="B416" t="s">
-        <v>2973</v>
+        <v>2982</v>
       </c>
       <c r="C416" t="s">
         <v>479</v>
@@ -19810,15 +19810,15 @@
         <v>480</v>
       </c>
       <c r="F416" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B417" t="s">
-        <v>2974</v>
+        <v>2980</v>
       </c>
       <c r="C417" t="s">
         <v>479</v>
@@ -19830,75 +19830,75 @@
         <v>480</v>
       </c>
       <c r="F417" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B418" t="s">
-        <v>2975</v>
+        <v>2978</v>
       </c>
       <c r="C418" t="s">
         <v>479</v>
       </c>
       <c r="D418" t="s">
-        <v>3591</v>
+        <v>3590</v>
       </c>
       <c r="E418" t="s">
         <v>480</v>
       </c>
       <c r="F418" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="B419" t="s">
-        <v>2976</v>
+        <v>3010</v>
       </c>
       <c r="C419" t="s">
         <v>479</v>
       </c>
       <c r="D419" t="s">
-        <v>3590</v>
+        <v>3597</v>
       </c>
       <c r="E419" t="s">
         <v>480</v>
       </c>
       <c r="F419" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="B420" t="s">
-        <v>2977</v>
+        <v>3011</v>
       </c>
       <c r="C420" t="s">
         <v>479</v>
       </c>
       <c r="D420" t="s">
-        <v>3590</v>
+        <v>3597</v>
       </c>
       <c r="E420" t="s">
         <v>480</v>
       </c>
       <c r="F420" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B421" t="s">
-        <v>2978</v>
+        <v>2979</v>
       </c>
       <c r="C421" t="s">
         <v>479</v>
@@ -19910,15 +19910,15 @@
         <v>480</v>
       </c>
       <c r="F421" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B422" t="s">
-        <v>2979</v>
+        <v>2981</v>
       </c>
       <c r="C422" t="s">
         <v>479</v>
@@ -19930,135 +19930,135 @@
         <v>480</v>
       </c>
       <c r="F422" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>419</v>
+        <v>292</v>
       </c>
       <c r="B423" t="s">
-        <v>2980</v>
+        <v>2852</v>
       </c>
       <c r="C423" t="s">
         <v>479</v>
       </c>
       <c r="D423" t="s">
-        <v>3590</v>
+        <v>3572</v>
       </c>
       <c r="E423" t="s">
         <v>480</v>
       </c>
       <c r="F423" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>420</v>
+        <v>291</v>
       </c>
       <c r="B424" t="s">
-        <v>2981</v>
+        <v>2851</v>
       </c>
       <c r="C424" t="s">
         <v>479</v>
       </c>
       <c r="D424" t="s">
-        <v>3590</v>
+        <v>3572</v>
       </c>
       <c r="E424" t="s">
         <v>480</v>
       </c>
       <c r="F424" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>421</v>
+        <v>291</v>
       </c>
       <c r="B425" t="s">
-        <v>2982</v>
+        <v>2856</v>
       </c>
       <c r="C425" t="s">
         <v>479</v>
       </c>
       <c r="D425" t="s">
-        <v>3590</v>
+        <v>3572</v>
       </c>
       <c r="E425" t="s">
         <v>480</v>
       </c>
       <c r="F425" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>293</v>
+        <v>227</v>
       </c>
       <c r="B426" t="s">
-        <v>2853</v>
+        <v>2787</v>
       </c>
       <c r="C426" t="s">
         <v>479</v>
       </c>
       <c r="D426" t="s">
-        <v>3590</v>
+        <v>3560</v>
       </c>
       <c r="E426" t="s">
         <v>480</v>
       </c>
       <c r="F426" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
+        <v>203</v>
+      </c>
+      <c r="B427" t="s">
+        <v>2763</v>
+      </c>
+      <c r="C427" t="s">
+        <v>479</v>
+      </c>
+      <c r="D427" t="s">
+        <v>3555</v>
+      </c>
+      <c r="E427" t="s">
+        <v>480</v>
+      </c>
+      <c r="F427" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>445</v>
+      </c>
+      <c r="B428" t="s">
+        <v>3006</v>
+      </c>
+      <c r="C428" t="s">
+        <v>479</v>
+      </c>
+      <c r="D428" t="s">
+        <v>3597</v>
+      </c>
+      <c r="E428" t="s">
+        <v>480</v>
+      </c>
+      <c r="F428" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
         <v>422</v>
       </c>
-      <c r="B427" t="s">
+      <c r="B429" t="s">
         <v>2983</v>
-      </c>
-      <c r="C427" t="s">
-        <v>479</v>
-      </c>
-      <c r="D427" t="s">
-        <v>3590</v>
-      </c>
-      <c r="E427" t="s">
-        <v>480</v>
-      </c>
-      <c r="F427" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A428" t="s">
-        <v>423</v>
-      </c>
-      <c r="B428" t="s">
-        <v>2984</v>
-      </c>
-      <c r="C428" t="s">
-        <v>479</v>
-      </c>
-      <c r="D428" t="s">
-        <v>3590</v>
-      </c>
-      <c r="E428" t="s">
-        <v>480</v>
-      </c>
-      <c r="F428" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A429" t="s">
-        <v>424</v>
-      </c>
-      <c r="B429" t="s">
-        <v>2985</v>
       </c>
       <c r="C429" t="s">
         <v>479</v>
@@ -20070,55 +20070,55 @@
         <v>480</v>
       </c>
       <c r="F429" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="B430" t="s">
-        <v>2986</v>
+        <v>3013</v>
       </c>
       <c r="C430" t="s">
         <v>479</v>
       </c>
       <c r="D430" t="s">
-        <v>3590</v>
+        <v>3597</v>
       </c>
       <c r="E430" t="s">
         <v>480</v>
       </c>
       <c r="F430" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>426</v>
+        <v>293</v>
       </c>
       <c r="B431" t="s">
-        <v>2987</v>
+        <v>2853</v>
       </c>
       <c r="C431" t="s">
         <v>479</v>
       </c>
       <c r="D431" t="s">
-        <v>3590</v>
+        <v>3572</v>
       </c>
       <c r="E431" t="s">
         <v>480</v>
       </c>
       <c r="F431" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>427</v>
+        <v>293</v>
       </c>
       <c r="B432" t="s">
-        <v>2988</v>
+        <v>2853</v>
       </c>
       <c r="C432" t="s">
         <v>479</v>
@@ -20130,115 +20130,115 @@
         <v>480</v>
       </c>
       <c r="F432" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>428</v>
+        <v>294</v>
       </c>
       <c r="B433" t="s">
-        <v>2989</v>
+        <v>2854</v>
       </c>
       <c r="C433" t="s">
         <v>479</v>
       </c>
       <c r="D433" t="s">
-        <v>3591</v>
+        <v>3572</v>
       </c>
       <c r="E433" t="s">
         <v>480</v>
       </c>
       <c r="F433" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>429</v>
+        <v>295</v>
       </c>
       <c r="B434" t="s">
-        <v>2990</v>
+        <v>2855</v>
       </c>
       <c r="C434" t="s">
         <v>479</v>
       </c>
       <c r="D434" t="s">
+        <v>3572</v>
+      </c>
+      <c r="E434" t="s">
+        <v>480</v>
+      </c>
+      <c r="F434" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>423</v>
+      </c>
+      <c r="B435" t="s">
+        <v>2984</v>
+      </c>
+      <c r="C435" t="s">
+        <v>479</v>
+      </c>
+      <c r="D435" t="s">
         <v>3590</v>
       </c>
-      <c r="E434" t="s">
-        <v>480</v>
-      </c>
-      <c r="F434" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A435" t="s">
-        <v>430</v>
-      </c>
-      <c r="B435" t="s">
-        <v>2991</v>
-      </c>
-      <c r="C435" t="s">
-        <v>479</v>
-      </c>
-      <c r="D435" t="s">
-        <v>3591</v>
-      </c>
       <c r="E435" t="s">
         <v>480</v>
       </c>
       <c r="F435" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>431</v>
+        <v>453</v>
       </c>
       <c r="B436" t="s">
-        <v>2992</v>
+        <v>3014</v>
       </c>
       <c r="C436" t="s">
         <v>479</v>
       </c>
       <c r="D436" t="s">
-        <v>3591</v>
+        <v>3597</v>
       </c>
       <c r="E436" t="s">
         <v>480</v>
       </c>
       <c r="F436" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>432</v>
+        <v>205</v>
       </c>
       <c r="B437" t="s">
-        <v>2993</v>
+        <v>2765</v>
       </c>
       <c r="C437" t="s">
         <v>479</v>
       </c>
       <c r="D437" t="s">
-        <v>3591</v>
+        <v>3556</v>
       </c>
       <c r="E437" t="s">
         <v>480</v>
       </c>
       <c r="F437" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="B438" t="s">
-        <v>2994</v>
+        <v>2985</v>
       </c>
       <c r="C438" t="s">
         <v>479</v>
@@ -20250,47 +20250,47 @@
         <v>480</v>
       </c>
       <c r="F438" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B439" t="s">
-        <v>2995</v>
+        <v>2996</v>
       </c>
       <c r="C439" t="s">
         <v>479</v>
       </c>
       <c r="D439" t="s">
-        <v>3593</v>
+        <v>3594</v>
       </c>
       <c r="E439" t="s">
         <v>480</v>
       </c>
       <c r="F439" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B440" t="s">
-        <v>2996</v>
+        <v>2989</v>
       </c>
       <c r="C440" t="s">
         <v>479</v>
       </c>
       <c r="D440" t="s">
-        <v>3594</v>
+        <v>3591</v>
       </c>
       <c r="E440" t="s">
         <v>480</v>
       </c>
       <c r="F440" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
     </row>
     <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -20453,204 +20453,204 @@
         <v>928</v>
       </c>
     </row>
-    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>444</v>
+        <v>243</v>
       </c>
       <c r="B449" t="s">
-        <v>3005</v>
+        <v>2803</v>
       </c>
       <c r="C449" t="s">
         <v>479</v>
       </c>
       <c r="D449" t="s">
-        <v>3597</v>
+        <v>3562</v>
       </c>
       <c r="E449" t="s">
         <v>480</v>
       </c>
       <c r="F449" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="B450" t="s">
-        <v>3006</v>
+        <v>2986</v>
       </c>
       <c r="C450" t="s">
         <v>479</v>
       </c>
       <c r="D450" t="s">
-        <v>3597</v>
+        <v>3590</v>
       </c>
       <c r="E450" t="s">
         <v>480</v>
       </c>
       <c r="F450" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="B451" t="s">
-        <v>3007</v>
+        <v>2987</v>
       </c>
       <c r="C451" t="s">
         <v>479</v>
       </c>
       <c r="D451" t="s">
-        <v>3597</v>
+        <v>3590</v>
       </c>
       <c r="E451" t="s">
         <v>480</v>
       </c>
       <c r="F451" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>447</v>
+        <v>204</v>
       </c>
       <c r="B452" t="s">
-        <v>3008</v>
+        <v>2764</v>
       </c>
       <c r="C452" t="s">
         <v>479</v>
       </c>
       <c r="D452" t="s">
-        <v>3597</v>
+        <v>3555</v>
       </c>
       <c r="E452" t="s">
         <v>480</v>
       </c>
       <c r="F452" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="B453" t="s">
-        <v>3009</v>
+        <v>2988</v>
       </c>
       <c r="C453" t="s">
         <v>479</v>
       </c>
       <c r="D453" t="s">
-        <v>3597</v>
+        <v>3590</v>
       </c>
       <c r="E453" t="s">
         <v>480</v>
       </c>
       <c r="F453" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>449</v>
+        <v>264</v>
       </c>
       <c r="B454" t="s">
-        <v>3010</v>
+        <v>2824</v>
       </c>
       <c r="C454" t="s">
         <v>479</v>
       </c>
       <c r="D454" t="s">
-        <v>3597</v>
+        <v>3567</v>
       </c>
       <c r="E454" t="s">
         <v>480</v>
       </c>
       <c r="F454" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="B455" t="s">
-        <v>3011</v>
+        <v>2990</v>
       </c>
       <c r="C455" t="s">
         <v>479</v>
       </c>
       <c r="D455" t="s">
-        <v>3597</v>
+        <v>3590</v>
       </c>
       <c r="E455" t="s">
         <v>480</v>
       </c>
       <c r="F455" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="B456" t="s">
-        <v>3012</v>
+        <v>2993</v>
       </c>
       <c r="C456" t="s">
         <v>479</v>
       </c>
       <c r="D456" t="s">
-        <v>3597</v>
+        <v>3591</v>
       </c>
       <c r="E456" t="s">
         <v>480</v>
       </c>
       <c r="F456" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="B457" t="s">
-        <v>3013</v>
+        <v>2992</v>
       </c>
       <c r="C457" t="s">
         <v>479</v>
       </c>
       <c r="D457" t="s">
-        <v>3597</v>
+        <v>3591</v>
       </c>
       <c r="E457" t="s">
         <v>480</v>
       </c>
       <c r="F457" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="B458" t="s">
-        <v>3014</v>
+        <v>2991</v>
       </c>
       <c r="C458" t="s">
         <v>479</v>
       </c>
       <c r="D458" t="s">
-        <v>3597</v>
+        <v>3591</v>
       </c>
       <c r="E458" t="s">
         <v>480</v>
       </c>
       <c r="F458" t="s">
-        <v>938</v>
+        <v>915</v>
       </c>
     </row>
     <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -25073,7 +25073,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>1160</v>
       </c>
@@ -25093,7 +25093,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>1161</v>
       </c>
@@ -25113,7 +25113,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>1162</v>
       </c>
@@ -25133,7 +25133,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>1163</v>
       </c>
@@ -25153,7 +25153,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>1164</v>
       </c>
@@ -35097,12 +35097,24 @@
   <autoFilter ref="A1:F1180" xr:uid="{A9D2ED58-F88D-43C4-BF9F-C40F8F165D4C}">
     <filterColumn colId="3">
       <filters>
-        <filter val="Acronyms|Network|Domain 4|IDS/IPS"/>
-        <filter val="Acronyms|Network|Domain 4|IDS/IPS|Wireless"/>
+        <filter val="Acronyms|Cryptography|Domain 3|Protocols"/>
+        <filter val="Acronyms|Cryptography|Domain 3|Protocols|Network"/>
+        <filter val="Acronyms|Domain 3|Protocols"/>
+        <filter val="Acronyms|Domain 5|Protocols"/>
+        <filter val="Acronyms|Domain 7|Protocols"/>
+        <filter val="Acronyms|Messaging|Protocols|Domain 4"/>
+        <filter val="Acronyms|Network|Domain 4|Protocols"/>
         <filter val="Acronyms|Network|Domain 4|Protocols|IDS/IPS"/>
-        <filter val="Domain 4|Network|IDS/IPS"/>
+        <filter val="Acronyms|Network|Domain 4|Protocols|Memory and Storage"/>
+        <filter val="Acronyms|Network|Domain 4|Protocols|Wireless"/>
+        <filter val="Acronyms|Network|Protocols|Domain 4"/>
+        <filter val="Acronyms|Protocols|Cryptography|Domain 4"/>
+        <filter val="Acronyms|Protocols|Domain 4"/>
       </filters>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A201:F458">
+      <sortCondition ref="A1:A1180"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CISSP/source/AddlReading-CISSP-Master.xlsx
+++ b/CISSP/source/AddlReading-CISSP-Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\flashcard-supplemental\CISSP\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99ED91A4-5D7A-4E77-A78A-23D7EFFD4E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118AF340-3EA3-403B-BCE5-0A543EBB0F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{34A9777F-DBB9-4DF2-A0D5-1DCEB488E1EA}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13214" uniqueCount="3695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13214" uniqueCount="3696">
   <si>
     <t>Association for Computing Machinery</t>
   </si>
@@ -11126,6 +11126,9 @@
   </si>
   <si>
     <t>DOMAIN 8|Quiz Questions</t>
+  </si>
+  <si>
+    <t>Acronyms|Domain 4|Network|Protocols</t>
   </si>
 </sst>
 </file>
@@ -11481,8 +11484,8 @@
   <dimension ref="A1:F1180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A434" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1190" sqref="C1190"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D195" sqref="D195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14813,12 +14816,12 @@
         <v>646</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>2725</v>
+        <v>2726</v>
       </c>
       <c r="C167" t="s">
         <v>479</v>
@@ -14830,15 +14833,15 @@
         <v>480</v>
       </c>
       <c r="F167" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>2726</v>
+        <v>2727</v>
       </c>
       <c r="C168" t="s">
         <v>479</v>
@@ -14850,215 +14853,215 @@
         <v>480</v>
       </c>
       <c r="F168" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>167</v>
+        <v>1069</v>
       </c>
       <c r="B169" t="s">
-        <v>2727</v>
+        <v>2134</v>
       </c>
       <c r="C169" t="s">
         <v>479</v>
       </c>
       <c r="D169" t="s">
-        <v>3554</v>
+        <v>3628</v>
       </c>
       <c r="E169" t="s">
-        <v>480</v>
+        <v>1496</v>
       </c>
       <c r="F169" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B170" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C170" t="s">
+        <v>479</v>
+      </c>
+      <c r="D170" t="s">
+        <v>3626</v>
+      </c>
+      <c r="E170" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F170" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>199</v>
+      </c>
+      <c r="B171" t="s">
+        <v>2759</v>
+      </c>
+      <c r="C171" t="s">
+        <v>479</v>
+      </c>
+      <c r="D171" t="s">
+        <v>3695</v>
+      </c>
+      <c r="E171" t="s">
+        <v>480</v>
+      </c>
+      <c r="F171" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B172" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C172" t="s">
+        <v>479</v>
+      </c>
+      <c r="D172" t="s">
+        <v>3627</v>
+      </c>
+      <c r="E172" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F172" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B173" t="s">
+        <v>2107</v>
+      </c>
+      <c r="C173" t="s">
+        <v>479</v>
+      </c>
+      <c r="D173" t="s">
+        <v>3626</v>
+      </c>
+      <c r="E173" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F173" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B174" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C174" t="s">
+        <v>479</v>
+      </c>
+      <c r="D174" t="s">
+        <v>3627</v>
+      </c>
+      <c r="E174" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F174" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B175" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C175" t="s">
+        <v>479</v>
+      </c>
+      <c r="D175" t="s">
+        <v>3626</v>
+      </c>
+      <c r="E175" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F175" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B176" t="s">
+        <v>2109</v>
+      </c>
+      <c r="C176" t="s">
+        <v>479</v>
+      </c>
+      <c r="D176" t="s">
+        <v>3626</v>
+      </c>
+      <c r="E176" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F176" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>201</v>
+      </c>
+      <c r="B177" t="s">
+        <v>2761</v>
+      </c>
+      <c r="C177" t="s">
+        <v>479</v>
+      </c>
+      <c r="D177" t="s">
+        <v>3555</v>
+      </c>
+      <c r="E177" t="s">
+        <v>480</v>
+      </c>
+      <c r="F177" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B178" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C178" t="s">
+        <v>479</v>
+      </c>
+      <c r="D178" t="s">
+        <v>3626</v>
+      </c>
+      <c r="E178" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F178" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
         <v>168</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B179" t="s">
         <v>2728</v>
-      </c>
-      <c r="C170" t="s">
-        <v>479</v>
-      </c>
-      <c r="D170" t="s">
-        <v>3554</v>
-      </c>
-      <c r="E170" t="s">
-        <v>480</v>
-      </c>
-      <c r="F170" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>169</v>
-      </c>
-      <c r="B171" t="s">
-        <v>2729</v>
-      </c>
-      <c r="C171" t="s">
-        <v>479</v>
-      </c>
-      <c r="D171" t="s">
-        <v>3554</v>
-      </c>
-      <c r="E171" t="s">
-        <v>480</v>
-      </c>
-      <c r="F171" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
-        <v>170</v>
-      </c>
-      <c r="B172" t="s">
-        <v>2730</v>
-      </c>
-      <c r="C172" t="s">
-        <v>479</v>
-      </c>
-      <c r="D172" t="s">
-        <v>3554</v>
-      </c>
-      <c r="E172" t="s">
-        <v>480</v>
-      </c>
-      <c r="F172" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>171</v>
-      </c>
-      <c r="B173" t="s">
-        <v>2731</v>
-      </c>
-      <c r="C173" t="s">
-        <v>479</v>
-      </c>
-      <c r="D173" t="s">
-        <v>3554</v>
-      </c>
-      <c r="E173" t="s">
-        <v>480</v>
-      </c>
-      <c r="F173" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>172</v>
-      </c>
-      <c r="B174" t="s">
-        <v>2732</v>
-      </c>
-      <c r="C174" t="s">
-        <v>479</v>
-      </c>
-      <c r="D174" t="s">
-        <v>3554</v>
-      </c>
-      <c r="E174" t="s">
-        <v>480</v>
-      </c>
-      <c r="F174" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>173</v>
-      </c>
-      <c r="B175" t="s">
-        <v>2733</v>
-      </c>
-      <c r="C175" t="s">
-        <v>479</v>
-      </c>
-      <c r="D175" t="s">
-        <v>3554</v>
-      </c>
-      <c r="E175" t="s">
-        <v>480</v>
-      </c>
-      <c r="F175" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>174</v>
-      </c>
-      <c r="B176" t="s">
-        <v>2734</v>
-      </c>
-      <c r="C176" t="s">
-        <v>479</v>
-      </c>
-      <c r="D176" t="s">
-        <v>3554</v>
-      </c>
-      <c r="E176" t="s">
-        <v>480</v>
-      </c>
-      <c r="F176" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>175</v>
-      </c>
-      <c r="B177" t="s">
-        <v>2735</v>
-      </c>
-      <c r="C177" t="s">
-        <v>479</v>
-      </c>
-      <c r="D177" t="s">
-        <v>3554</v>
-      </c>
-      <c r="E177" t="s">
-        <v>480</v>
-      </c>
-      <c r="F177" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>176</v>
-      </c>
-      <c r="B178" t="s">
-        <v>2736</v>
-      </c>
-      <c r="C178" t="s">
-        <v>479</v>
-      </c>
-      <c r="D178" t="s">
-        <v>3554</v>
-      </c>
-      <c r="E178" t="s">
-        <v>480</v>
-      </c>
-      <c r="F178" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>177</v>
-      </c>
-      <c r="B179" t="s">
-        <v>2737</v>
       </c>
       <c r="C179" t="s">
         <v>479</v>
@@ -15070,15 +15073,15 @@
         <v>480</v>
       </c>
       <c r="F179" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B180" t="s">
-        <v>2738</v>
+        <v>2729</v>
       </c>
       <c r="C180" t="s">
         <v>479</v>
@@ -15090,35 +15093,35 @@
         <v>480</v>
       </c>
       <c r="F180" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>179</v>
+        <v>1046</v>
       </c>
       <c r="B181" t="s">
-        <v>2739</v>
+        <v>2111</v>
       </c>
       <c r="C181" t="s">
         <v>479</v>
       </c>
       <c r="D181" t="s">
-        <v>3554</v>
+        <v>3626</v>
       </c>
       <c r="E181" t="s">
-        <v>480</v>
+        <v>1496</v>
       </c>
       <c r="F181" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B182" t="s">
-        <v>2740</v>
+        <v>2730</v>
       </c>
       <c r="C182" t="s">
         <v>479</v>
@@ -15130,75 +15133,75 @@
         <v>480</v>
       </c>
       <c r="F182" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="B183" t="s">
-        <v>2741</v>
+        <v>2762</v>
       </c>
       <c r="C183" t="s">
         <v>479</v>
       </c>
       <c r="D183" t="s">
-        <v>3554</v>
+        <v>3555</v>
       </c>
       <c r="E183" t="s">
         <v>480</v>
       </c>
       <c r="F183" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="B184" t="s">
-        <v>2742</v>
+        <v>2760</v>
       </c>
       <c r="C184" t="s">
         <v>479</v>
       </c>
       <c r="D184" t="s">
-        <v>3554</v>
+        <v>3555</v>
       </c>
       <c r="E184" t="s">
         <v>480</v>
       </c>
       <c r="F184" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>183</v>
+        <v>1047</v>
       </c>
       <c r="B185" t="s">
-        <v>2743</v>
+        <v>2112</v>
       </c>
       <c r="C185" t="s">
         <v>479</v>
       </c>
       <c r="D185" t="s">
-        <v>3554</v>
+        <v>3626</v>
       </c>
       <c r="E185" t="s">
-        <v>480</v>
+        <v>1496</v>
       </c>
       <c r="F185" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B186" t="s">
-        <v>2744</v>
+        <v>2731</v>
       </c>
       <c r="C186" t="s">
         <v>479</v>
@@ -15210,15 +15213,15 @@
         <v>480</v>
       </c>
       <c r="F186" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="B187" t="s">
-        <v>2745</v>
+        <v>2732</v>
       </c>
       <c r="C187" t="s">
         <v>479</v>
@@ -15230,15 +15233,15 @@
         <v>480</v>
       </c>
       <c r="F187" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B188" t="s">
-        <v>2746</v>
+        <v>2733</v>
       </c>
       <c r="C188" t="s">
         <v>479</v>
@@ -15250,35 +15253,35 @@
         <v>480</v>
       </c>
       <c r="F188" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>187</v>
+        <v>1048</v>
       </c>
       <c r="B189" t="s">
-        <v>2747</v>
+        <v>2113</v>
       </c>
       <c r="C189" t="s">
         <v>479</v>
       </c>
       <c r="D189" t="s">
-        <v>3554</v>
+        <v>3626</v>
       </c>
       <c r="E189" t="s">
-        <v>480</v>
+        <v>1496</v>
       </c>
       <c r="F189" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B190" t="s">
-        <v>2748</v>
+        <v>2734</v>
       </c>
       <c r="C190" t="s">
         <v>479</v>
@@ -15290,35 +15293,35 @@
         <v>480</v>
       </c>
       <c r="F190" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>189</v>
+        <v>1049</v>
       </c>
       <c r="B191" t="s">
-        <v>2749</v>
+        <v>2114</v>
       </c>
       <c r="C191" t="s">
         <v>479</v>
       </c>
       <c r="D191" t="s">
-        <v>3554</v>
+        <v>3626</v>
       </c>
       <c r="E191" t="s">
-        <v>480</v>
+        <v>1496</v>
       </c>
       <c r="F191" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B192" t="s">
-        <v>2750</v>
+        <v>2735</v>
       </c>
       <c r="C192" t="s">
         <v>479</v>
@@ -15330,15 +15333,15 @@
         <v>480</v>
       </c>
       <c r="F192" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B193" t="s">
-        <v>2751</v>
+        <v>2736</v>
       </c>
       <c r="C193" t="s">
         <v>479</v>
@@ -15350,15 +15353,15 @@
         <v>480</v>
       </c>
       <c r="F193" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B194" t="s">
-        <v>2752</v>
+        <v>2737</v>
       </c>
       <c r="C194" t="s">
         <v>479</v>
@@ -15370,35 +15373,35 @@
         <v>480</v>
       </c>
       <c r="F194" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B195" t="s">
-        <v>2753</v>
+        <v>2739</v>
       </c>
       <c r="C195" t="s">
         <v>479</v>
       </c>
       <c r="D195" t="s">
-        <v>3554</v>
+        <v>3695</v>
       </c>
       <c r="E195" t="s">
         <v>480</v>
       </c>
       <c r="F195" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="B196" t="s">
-        <v>2754</v>
+        <v>2738</v>
       </c>
       <c r="C196" t="s">
         <v>479</v>
@@ -15410,35 +15413,35 @@
         <v>480</v>
       </c>
       <c r="F196" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="B197" t="s">
-        <v>2755</v>
+        <v>2786</v>
       </c>
       <c r="C197" t="s">
         <v>479</v>
       </c>
       <c r="D197" t="s">
-        <v>3554</v>
+        <v>3559</v>
       </c>
       <c r="E197" t="s">
         <v>480</v>
       </c>
       <c r="F197" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="B198" t="s">
-        <v>2756</v>
+        <v>2740</v>
       </c>
       <c r="C198" t="s">
         <v>479</v>
@@ -15450,15 +15453,15 @@
         <v>480</v>
       </c>
       <c r="F198" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="B199" t="s">
-        <v>2757</v>
+        <v>2741</v>
       </c>
       <c r="C199" t="s">
         <v>479</v>
@@ -15470,30 +15473,30 @@
         <v>480</v>
       </c>
       <c r="F199" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>198</v>
+        <v>1050</v>
       </c>
       <c r="B200" t="s">
-        <v>2758</v>
+        <v>2115</v>
       </c>
       <c r="C200" t="s">
         <v>479</v>
       </c>
       <c r="D200" t="s">
-        <v>3554</v>
+        <v>3626</v>
       </c>
       <c r="E200" t="s">
-        <v>480</v>
+        <v>1496</v>
       </c>
       <c r="F200" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>433</v>
       </c>
@@ -15513,7 +15516,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>394</v>
       </c>
@@ -15535,25 +15538,25 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="B203" t="s">
-        <v>2759</v>
+        <v>2743</v>
       </c>
       <c r="C203" t="s">
         <v>479</v>
       </c>
       <c r="D203" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="E203" t="s">
         <v>480</v>
       </c>
       <c r="F203" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>395</v>
       </c>
@@ -15575,62 +15578,62 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="B205" t="s">
-        <v>2761</v>
+        <v>2742</v>
       </c>
       <c r="C205" t="s">
         <v>479</v>
       </c>
       <c r="D205" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="E205" t="s">
         <v>480</v>
       </c>
       <c r="F205" t="s">
-        <v>683</v>
+        <v>664</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="B206" t="s">
-        <v>2762</v>
+        <v>2744</v>
       </c>
       <c r="C206" t="s">
         <v>479</v>
       </c>
       <c r="D206" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="E206" t="s">
         <v>480</v>
       </c>
       <c r="F206" t="s">
-        <v>684</v>
+        <v>666</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>200</v>
+        <v>1476</v>
       </c>
       <c r="B207" t="s">
-        <v>2760</v>
+        <v>2541</v>
       </c>
       <c r="C207" t="s">
         <v>479</v>
       </c>
       <c r="D207" t="s">
-        <v>3555</v>
+        <v>3668</v>
       </c>
       <c r="E207" t="s">
-        <v>480</v>
+        <v>1496</v>
       </c>
       <c r="F207" t="s">
-        <v>682</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -16033,27 +16036,27 @@
         <v>707</v>
       </c>
     </row>
-    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="B228" t="s">
-        <v>2786</v>
+        <v>2857</v>
       </c>
       <c r="C228" t="s">
         <v>479</v>
       </c>
       <c r="D228" t="s">
-        <v>3559</v>
+        <v>3575</v>
       </c>
       <c r="E228" t="s">
         <v>480</v>
       </c>
       <c r="F228" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>396</v>
       </c>
@@ -16373,7 +16376,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>398</v>
       </c>
@@ -16793,7 +16796,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>282</v>
       </c>
@@ -17153,7 +17156,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>399</v>
       </c>
@@ -17193,7 +17196,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>397</v>
       </c>
@@ -17213,7 +17216,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>400</v>
       </c>
@@ -17273,24 +17276,24 @@
         <v>769</v>
       </c>
     </row>
-    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>288</v>
+        <v>1051</v>
       </c>
       <c r="B290" t="s">
-        <v>2848</v>
+        <v>2116</v>
       </c>
       <c r="C290" t="s">
         <v>479</v>
       </c>
       <c r="D290" t="s">
-        <v>3573</v>
+        <v>3626</v>
       </c>
       <c r="E290" t="s">
-        <v>480</v>
+        <v>1496</v>
       </c>
       <c r="F290" t="s">
-        <v>770</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -17313,7 +17316,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>401</v>
       </c>
@@ -17333,7 +17336,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>434</v>
       </c>
@@ -17353,7 +17356,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>444</v>
       </c>
@@ -17373,7 +17376,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>402</v>
       </c>
@@ -17393,7 +17396,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>446</v>
       </c>
@@ -17413,7 +17416,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>447</v>
       </c>
@@ -17433,7 +17436,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>403</v>
       </c>
@@ -17453,7 +17456,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>448</v>
       </c>
@@ -18313,24 +18316,24 @@
         <v>821</v>
       </c>
     </row>
-    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>339</v>
+        <v>185</v>
       </c>
       <c r="B342" t="s">
-        <v>2900</v>
+        <v>2745</v>
       </c>
       <c r="C342" t="s">
         <v>479</v>
       </c>
       <c r="D342" t="s">
-        <v>3584</v>
+        <v>3554</v>
       </c>
       <c r="E342" t="s">
         <v>480</v>
       </c>
       <c r="F342" t="s">
-        <v>822</v>
+        <v>667</v>
       </c>
     </row>
     <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -19435,25 +19438,25 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>296</v>
+        <v>1067</v>
       </c>
       <c r="B398" t="s">
-        <v>2857</v>
+        <v>2132</v>
       </c>
       <c r="C398" t="s">
         <v>479</v>
       </c>
       <c r="D398" t="s">
-        <v>3575</v>
+        <v>3627</v>
       </c>
       <c r="E398" t="s">
-        <v>480</v>
+        <v>1496</v>
       </c>
       <c r="F398" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>284</v>
       </c>
@@ -19473,7 +19476,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>404</v>
       </c>
@@ -19493,7 +19496,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>405</v>
       </c>
@@ -19513,7 +19516,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>406</v>
       </c>
@@ -19533,7 +19536,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>407</v>
       </c>
@@ -19553,7 +19556,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>408</v>
       </c>
@@ -19573,7 +19576,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>409</v>
       </c>
@@ -19593,7 +19596,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>285</v>
       </c>
@@ -19613,7 +19616,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>410</v>
       </c>
@@ -19633,7 +19636,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>411</v>
       </c>
@@ -19653,7 +19656,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>412</v>
       </c>
@@ -19673,7 +19676,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>413</v>
       </c>
@@ -19693,7 +19696,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>415</v>
       </c>
@@ -19713,7 +19716,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>416</v>
       </c>
@@ -19733,7 +19736,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>290</v>
       </c>
@@ -19753,7 +19756,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>414</v>
       </c>
@@ -19773,7 +19776,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>451</v>
       </c>
@@ -19793,7 +19796,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>421</v>
       </c>
@@ -19813,7 +19816,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>419</v>
       </c>
@@ -19833,7 +19836,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>417</v>
       </c>
@@ -19853,7 +19856,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>449</v>
       </c>
@@ -19873,7 +19876,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>450</v>
       </c>
@@ -19893,7 +19896,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>418</v>
       </c>
@@ -19913,7 +19916,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>420</v>
       </c>
@@ -19933,7 +19936,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>292</v>
       </c>
@@ -19953,7 +19956,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>291</v>
       </c>
@@ -19973,7 +19976,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>291</v>
       </c>
@@ -19993,7 +19996,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>227</v>
       </c>
@@ -20015,25 +20018,25 @@
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="B427" t="s">
-        <v>2763</v>
+        <v>2746</v>
       </c>
       <c r="C427" t="s">
         <v>479</v>
       </c>
       <c r="D427" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="E427" t="s">
         <v>480</v>
       </c>
       <c r="F427" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>445</v>
       </c>
@@ -20053,7 +20056,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>422</v>
       </c>
@@ -20073,7 +20076,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>452</v>
       </c>
@@ -20093,7 +20096,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>293</v>
       </c>
@@ -20113,7 +20116,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>293</v>
       </c>
@@ -20133,7 +20136,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>294</v>
       </c>
@@ -20153,7 +20156,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>295</v>
       </c>
@@ -20173,7 +20176,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>423</v>
       </c>
@@ -20193,7 +20196,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>453</v>
       </c>
@@ -20215,25 +20218,25 @@
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>205</v>
+        <v>1052</v>
       </c>
       <c r="B437" t="s">
-        <v>2765</v>
+        <v>2117</v>
       </c>
       <c r="C437" t="s">
         <v>479</v>
       </c>
       <c r="D437" t="s">
-        <v>3556</v>
+        <v>3626</v>
       </c>
       <c r="E437" t="s">
-        <v>480</v>
+        <v>1496</v>
       </c>
       <c r="F437" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>424</v>
       </c>
@@ -20253,7 +20256,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>435</v>
       </c>
@@ -20273,7 +20276,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>428</v>
       </c>
@@ -20453,7 +20456,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>243</v>
       </c>
@@ -20473,7 +20476,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>425</v>
       </c>
@@ -20493,7 +20496,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>426</v>
       </c>
@@ -20515,25 +20518,25 @@
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="B452" t="s">
-        <v>2764</v>
+        <v>2747</v>
       </c>
       <c r="C452" t="s">
         <v>479</v>
       </c>
       <c r="D452" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="E452" t="s">
         <v>480</v>
       </c>
       <c r="F452" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>427</v>
       </c>
@@ -20553,7 +20556,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>264</v>
       </c>
@@ -20573,7 +20576,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>429</v>
       </c>
@@ -20593,7 +20596,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>432</v>
       </c>
@@ -20613,7 +20616,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>431</v>
       </c>
@@ -20633,7 +20636,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>430</v>
       </c>
@@ -22693,32 +22696,32 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="561" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>1041</v>
+        <v>188</v>
       </c>
       <c r="B561" t="s">
-        <v>2106</v>
+        <v>2748</v>
       </c>
       <c r="C561" t="s">
         <v>479</v>
       </c>
       <c r="D561" t="s">
-        <v>3626</v>
+        <v>3554</v>
       </c>
       <c r="E561" t="s">
-        <v>1496</v>
+        <v>480</v>
       </c>
       <c r="F561" t="s">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="562" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>1042</v>
+        <v>1053</v>
       </c>
       <c r="B562" t="s">
-        <v>2107</v>
+        <v>2118</v>
       </c>
       <c r="C562" t="s">
         <v>479</v>
@@ -22730,195 +22733,195 @@
         <v>1496</v>
       </c>
       <c r="F562" t="s">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="563" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>1043</v>
+        <v>191</v>
       </c>
       <c r="B563" t="s">
-        <v>2108</v>
+        <v>2751</v>
       </c>
       <c r="C563" t="s">
         <v>479</v>
       </c>
       <c r="D563" t="s">
-        <v>3626</v>
+        <v>3554</v>
       </c>
       <c r="E563" t="s">
-        <v>1496</v>
+        <v>480</v>
       </c>
       <c r="F563" t="s">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="564" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>1044</v>
+        <v>288</v>
       </c>
       <c r="B564" t="s">
-        <v>2109</v>
+        <v>2848</v>
       </c>
       <c r="C564" t="s">
         <v>479</v>
       </c>
       <c r="D564" t="s">
-        <v>3626</v>
+        <v>3573</v>
       </c>
       <c r="E564" t="s">
-        <v>1496</v>
+        <v>480</v>
       </c>
       <c r="F564" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="565" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>1045</v>
+        <v>189</v>
       </c>
       <c r="B565" t="s">
-        <v>2110</v>
+        <v>2749</v>
       </c>
       <c r="C565" t="s">
         <v>479</v>
       </c>
       <c r="D565" t="s">
-        <v>3626</v>
+        <v>3554</v>
       </c>
       <c r="E565" t="s">
-        <v>1496</v>
+        <v>480</v>
       </c>
       <c r="F565" t="s">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="566" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>1046</v>
+        <v>190</v>
       </c>
       <c r="B566" t="s">
-        <v>2111</v>
+        <v>2750</v>
       </c>
       <c r="C566" t="s">
         <v>479</v>
       </c>
       <c r="D566" t="s">
-        <v>3626</v>
+        <v>3554</v>
       </c>
       <c r="E566" t="s">
-        <v>1496</v>
+        <v>480</v>
       </c>
       <c r="F566" t="s">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="567" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>1047</v>
+        <v>194</v>
       </c>
       <c r="B567" t="s">
-        <v>2112</v>
+        <v>2754</v>
       </c>
       <c r="C567" t="s">
         <v>479</v>
       </c>
       <c r="D567" t="s">
-        <v>3626</v>
+        <v>3554</v>
       </c>
       <c r="E567" t="s">
-        <v>1496</v>
+        <v>480</v>
       </c>
       <c r="F567" t="s">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="568" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>1048</v>
+        <v>192</v>
       </c>
       <c r="B568" t="s">
-        <v>2113</v>
+        <v>2752</v>
       </c>
       <c r="C568" t="s">
         <v>479</v>
       </c>
       <c r="D568" t="s">
-        <v>3626</v>
+        <v>3554</v>
       </c>
       <c r="E568" t="s">
-        <v>1496</v>
+        <v>480</v>
       </c>
       <c r="F568" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="569" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>1049</v>
+        <v>1068</v>
       </c>
       <c r="B569" t="s">
-        <v>2114</v>
+        <v>2133</v>
       </c>
       <c r="C569" t="s">
         <v>479</v>
       </c>
       <c r="D569" t="s">
-        <v>3626</v>
+        <v>3627</v>
       </c>
       <c r="E569" t="s">
         <v>1496</v>
       </c>
       <c r="F569" t="s">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="570" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>1050</v>
+        <v>193</v>
       </c>
       <c r="B570" t="s">
-        <v>2115</v>
+        <v>2753</v>
       </c>
       <c r="C570" t="s">
         <v>479</v>
       </c>
       <c r="D570" t="s">
-        <v>3626</v>
+        <v>3554</v>
       </c>
       <c r="E570" t="s">
-        <v>1496</v>
+        <v>480</v>
       </c>
       <c r="F570" t="s">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="571" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>1051</v>
+        <v>195</v>
       </c>
       <c r="B571" t="s">
-        <v>2116</v>
+        <v>2755</v>
       </c>
       <c r="C571" t="s">
         <v>479</v>
       </c>
       <c r="D571" t="s">
-        <v>3626</v>
+        <v>3554</v>
       </c>
       <c r="E571" t="s">
-        <v>1496</v>
+        <v>480</v>
       </c>
       <c r="F571" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="572" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="B572" t="s">
-        <v>2117</v>
+        <v>2119</v>
       </c>
       <c r="C572" t="s">
         <v>479</v>
@@ -22930,75 +22933,75 @@
         <v>1496</v>
       </c>
       <c r="F572" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="573" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>1053</v>
+        <v>197</v>
       </c>
       <c r="B573" t="s">
-        <v>2118</v>
+        <v>2757</v>
       </c>
       <c r="C573" t="s">
         <v>479</v>
       </c>
       <c r="D573" t="s">
-        <v>3626</v>
+        <v>3554</v>
       </c>
       <c r="E573" t="s">
-        <v>1496</v>
+        <v>480</v>
       </c>
       <c r="F573" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="574" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>1054</v>
+        <v>203</v>
       </c>
       <c r="B574" t="s">
-        <v>2119</v>
+        <v>2763</v>
       </c>
       <c r="C574" t="s">
         <v>479</v>
       </c>
       <c r="D574" t="s">
-        <v>3626</v>
+        <v>3555</v>
       </c>
       <c r="E574" t="s">
-        <v>1496</v>
+        <v>480</v>
       </c>
       <c r="F574" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="575" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
+        <v>196</v>
+      </c>
+      <c r="B575" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C575" t="s">
+        <v>479</v>
+      </c>
+      <c r="D575" t="s">
+        <v>3554</v>
+      </c>
+      <c r="E575" t="s">
+        <v>480</v>
+      </c>
+      <c r="F575" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A576" t="s">
         <v>1055</v>
       </c>
-      <c r="B575" t="s">
+      <c r="B576" t="s">
         <v>2120</v>
-      </c>
-      <c r="C575" t="s">
-        <v>479</v>
-      </c>
-      <c r="D575" t="s">
-        <v>3626</v>
-      </c>
-      <c r="E575" t="s">
-        <v>1496</v>
-      </c>
-      <c r="F575" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="576" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A576" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B576" t="s">
-        <v>2121</v>
       </c>
       <c r="C576" t="s">
         <v>479</v>
@@ -23010,15 +23013,15 @@
         <v>1496</v>
       </c>
       <c r="F576" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="577" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B577" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="C577" t="s">
         <v>479</v>
@@ -23030,15 +23033,15 @@
         <v>1496</v>
       </c>
       <c r="F577" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="578" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B578" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="C578" t="s">
         <v>479</v>
@@ -23050,15 +23053,15 @@
         <v>1496</v>
       </c>
       <c r="F578" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="579" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B579" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="C579" t="s">
         <v>479</v>
@@ -23070,35 +23073,35 @@
         <v>1496</v>
       </c>
       <c r="F579" t="s">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="580" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>1060</v>
+        <v>205</v>
       </c>
       <c r="B580" t="s">
-        <v>2125</v>
+        <v>2765</v>
       </c>
       <c r="C580" t="s">
         <v>479</v>
       </c>
       <c r="D580" t="s">
-        <v>3626</v>
+        <v>3556</v>
       </c>
       <c r="E580" t="s">
-        <v>1496</v>
+        <v>480</v>
       </c>
       <c r="F580" t="s">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="581" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B581" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="C581" t="s">
         <v>479</v>
@@ -23110,35 +23113,35 @@
         <v>1496</v>
       </c>
       <c r="F581" t="s">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="582" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>1062</v>
+        <v>339</v>
       </c>
       <c r="B582" t="s">
-        <v>2127</v>
+        <v>2900</v>
       </c>
       <c r="C582" t="s">
         <v>479</v>
       </c>
       <c r="D582" t="s">
-        <v>3626</v>
+        <v>3584</v>
       </c>
       <c r="E582" t="s">
-        <v>1496</v>
+        <v>480</v>
       </c>
       <c r="F582" t="s">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="583" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="B583" t="s">
-        <v>2128</v>
+        <v>2125</v>
       </c>
       <c r="C583" t="s">
         <v>479</v>
@@ -23150,147 +23153,147 @@
         <v>1496</v>
       </c>
       <c r="F583" t="s">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="584" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>1064</v>
+        <v>1494</v>
       </c>
       <c r="B584" t="s">
-        <v>2129</v>
+        <v>2559</v>
       </c>
       <c r="C584" t="s">
         <v>479</v>
       </c>
       <c r="D584" t="s">
+        <v>3668</v>
+      </c>
+      <c r="E584" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F584" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A585" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B585" t="s">
+        <v>2126</v>
+      </c>
+      <c r="C585" t="s">
+        <v>479</v>
+      </c>
+      <c r="D585" t="s">
         <v>3626</v>
       </c>
-      <c r="E584" t="s">
-        <v>1496</v>
-      </c>
-      <c r="F584" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="585" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A585" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B585" t="s">
-        <v>2130</v>
-      </c>
-      <c r="C585" t="s">
-        <v>479</v>
-      </c>
-      <c r="D585" t="s">
-        <v>3627</v>
-      </c>
       <c r="E585" t="s">
         <v>1496</v>
       </c>
       <c r="F585" t="s">
-        <v>1601</v>
-      </c>
-    </row>
-    <row r="586" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="B586" t="s">
-        <v>2131</v>
+        <v>2135</v>
       </c>
       <c r="C586" t="s">
         <v>479</v>
       </c>
       <c r="D586" t="s">
-        <v>3627</v>
+        <v>3628</v>
       </c>
       <c r="E586" t="s">
         <v>1496</v>
       </c>
       <c r="F586" t="s">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="587" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>1067</v>
+        <v>204</v>
       </c>
       <c r="B587" t="s">
-        <v>2132</v>
+        <v>2764</v>
       </c>
       <c r="C587" t="s">
         <v>479</v>
       </c>
       <c r="D587" t="s">
-        <v>3627</v>
+        <v>3555</v>
       </c>
       <c r="E587" t="s">
-        <v>1496</v>
+        <v>480</v>
       </c>
       <c r="F587" t="s">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="588" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
-        <v>1068</v>
+        <v>1465</v>
       </c>
       <c r="B588" t="s">
-        <v>2133</v>
+        <v>2530</v>
       </c>
       <c r="C588" t="s">
         <v>479</v>
       </c>
       <c r="D588" t="s">
-        <v>3627</v>
+        <v>3665</v>
       </c>
       <c r="E588" t="s">
         <v>1496</v>
       </c>
       <c r="F588" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="589" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="B589" t="s">
-        <v>2134</v>
+        <v>2127</v>
       </c>
       <c r="C589" t="s">
         <v>479</v>
       </c>
       <c r="D589" t="s">
-        <v>3628</v>
+        <v>3626</v>
       </c>
       <c r="E589" t="s">
         <v>1496</v>
       </c>
       <c r="F589" t="s">
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="590" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>1070</v>
+        <v>165</v>
       </c>
       <c r="B590" t="s">
-        <v>2135</v>
+        <v>2725</v>
       </c>
       <c r="C590" t="s">
         <v>479</v>
       </c>
       <c r="D590" t="s">
-        <v>3628</v>
+        <v>3554</v>
       </c>
       <c r="E590" t="s">
-        <v>1496</v>
+        <v>480</v>
       </c>
       <c r="F590" t="s">
-        <v>1606</v>
+        <v>647</v>
       </c>
     </row>
     <row r="591" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -23313,24 +23316,24 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="592" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
-        <v>1072</v>
+        <v>198</v>
       </c>
       <c r="B592" t="s">
-        <v>2137</v>
+        <v>2758</v>
       </c>
       <c r="C592" t="s">
         <v>479</v>
       </c>
       <c r="D592" t="s">
-        <v>3629</v>
+        <v>3554</v>
       </c>
       <c r="E592" t="s">
-        <v>1496</v>
+        <v>480</v>
       </c>
       <c r="F592" t="s">
-        <v>1608</v>
+        <v>680</v>
       </c>
     </row>
     <row r="593" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -31173,24 +31176,24 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="985" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A985" t="s">
-        <v>1465</v>
+        <v>1063</v>
       </c>
       <c r="B985" t="s">
-        <v>2530</v>
+        <v>2128</v>
       </c>
       <c r="C985" t="s">
         <v>479</v>
       </c>
       <c r="D985" t="s">
-        <v>3665</v>
+        <v>3626</v>
       </c>
       <c r="E985" t="s">
         <v>1496</v>
       </c>
       <c r="F985" t="s">
-        <v>2000</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="986" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -31393,24 +31396,24 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="996" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A996" t="s">
-        <v>1476</v>
+        <v>1072</v>
       </c>
       <c r="B996" t="s">
-        <v>2541</v>
+        <v>2137</v>
       </c>
       <c r="C996" t="s">
         <v>479</v>
       </c>
       <c r="D996" t="s">
-        <v>3668</v>
+        <v>3629</v>
       </c>
       <c r="E996" t="s">
         <v>1496</v>
       </c>
       <c r="F996" t="s">
-        <v>2011</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="997" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -31753,24 +31756,24 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1014" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1014" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1014" t="s">
-        <v>1494</v>
+        <v>1064</v>
       </c>
       <c r="B1014" t="s">
-        <v>2559</v>
+        <v>2129</v>
       </c>
       <c r="C1014" t="s">
         <v>479</v>
       </c>
       <c r="D1014" t="s">
-        <v>3668</v>
+        <v>3626</v>
       </c>
       <c r="E1014" t="s">
         <v>1496</v>
       </c>
       <c r="F1014" t="s">
-        <v>2026</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1015" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -35097,22 +35100,22 @@
   <autoFilter ref="A1:F1180" xr:uid="{A9D2ED58-F88D-43C4-BF9F-C40F8F165D4C}">
     <filterColumn colId="3">
       <filters>
+        <filter val="Acronyms|Cryptography|Domain 3"/>
         <filter val="Acronyms|Cryptography|Domain 3|Protocols"/>
         <filter val="Acronyms|Cryptography|Domain 3|Protocols|Network"/>
-        <filter val="Acronyms|Domain 3|Protocols"/>
-        <filter val="Acronyms|Domain 5|Protocols"/>
-        <filter val="Acronyms|Domain 7|Protocols"/>
-        <filter val="Acronyms|Messaging|Protocols|Domain 4"/>
-        <filter val="Acronyms|Network|Domain 4|Protocols"/>
-        <filter val="Acronyms|Network|Domain 4|Protocols|IDS/IPS"/>
-        <filter val="Acronyms|Network|Domain 4|Protocols|Memory and Storage"/>
-        <filter val="Acronyms|Network|Domain 4|Protocols|Wireless"/>
-        <filter val="Acronyms|Network|Protocols|Domain 4"/>
+        <filter val="Acronyms|Domain 3|Cryptography"/>
+        <filter val="Acronyms|Messaging|Cryptography|Domain 3"/>
+        <filter val="Acronyms|Network|Cryptography|Domain 5"/>
         <filter val="Acronyms|Protocols|Cryptography|Domain 4"/>
-        <filter val="Acronyms|Protocols|Domain 4"/>
+        <filter val="Domain 3|Cryptography"/>
+        <filter val="Domain 3|Cryptography|Attacks"/>
+        <filter val="DOMAIN 3|Cryptography|Exam Glossary"/>
+        <filter val="DOMAIN 3|Exam Glossary|Cryptography"/>
+        <filter val="Exam Glossary|Cryptography|Domain 3"/>
+        <filter val="Exam Glossary|Domain 3|Cryptography"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A201:F458">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A167:F1014">
       <sortCondition ref="A1:A1180"/>
     </sortState>
   </autoFilter>
